--- a/Filtered_Employment.xlsx
+++ b/Filtered_Employment.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <x:si>
     <x:t>Title</x:t>
   </x:si>
@@ -49,20 +49,11 @@
     <x:t>Requirements</x:t>
   </x:si>
   <x:si>
-    <x:t>Phlebotomist - Downtown Donor Center Versiti Inc.
-              Greater Indianapolis</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">schedule including early mornings, late days/evenings, weekends and holidaysExcellent interpersonal skills, with demonstrated ability to work and interact effectively with peers, donors and the general publicA proven track record of customer service excellence and reliabilityBilingual strongly preferredSkills And KnowledgeKnowledge of standardized work routines and methods, general facts and information and/or the use of simple equipment, machines and materials. Knowledge is usually acquired through training on the job.Ability to read and interpret documents such as Standard Operating Procedures, safety rules, operating and maintenance instructions, and other department manuals.Must have basic mathematical aptitude.Ability to apply judgment to written or oral instructions.Ability to organize work to provide productive work flow.Flexibility to work independently and with a team.Has strong attention to detail.Must have good communication skills, including the ability to provide feedback to peers.Ability to learn/utilize computer applications such as Ceridian, Hemasphere, Oracle, and HemaTerra.Additional InformationTools and TechnologyPersonal Computer (desktop, laptop, tablet).General office equipment (computer, printer, fax, copy machine).Vehicle navigation system.Microsoft Suite (Word, Excel, PowerPoint, Outlook).Screening equipment including:LancetSphygmomanometer (BP cuff)Temperature probeHemoglobin analyzerPhlebotomy collection equipment including:Blood mixerTrimaAlyxPhysical </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">responsibilities. Looking at computer screens or small items is common. Mental demands: Requires ability to maintain a routine of intense concentration for long periods, as well as excellent cognitive, analytical, and memory ability. Environmental hazards: Frequent work with biohazardous material is completed in a donor center or mobile environment wearing appropriate Personal Protective Equipment (PPE) and following internal policies, training, and OSHA standards. Moderate level of noise is present in the collection areas. Employee is frequently exposed to the public. Exposure to various temperatures will occur.Watch to learn more about the position at www.youtube.com/watch?v=bLjeFLYBVaU.Our MissionWe are Blood Health Innovators who enhance lives through discovery, diagnosis, and treatment.Our VisionWe will expand the frontiers of patient health through the integration of science, medicine, and service.Equal Opportunity Employer. This company will provide equal opportunity to all individuals without regard to race, color, religion, sex, sexual orientation, gender identity, national origin, disability or veteran status. Show more Show less Seniority level Entry level Employment type Full-time Job function Health Care Provider Industries Biotechnology Research Referrals increase your chances of interviewing at Versiti Inc. by 2x See who you know </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">experience? No problem! We provide full paid training.Join the Versiti Donor Services team today!What You Can Expect In This PositionWe train all of our phlebotomists in the techniques that will help them advance their careers in health care, while working with a compassionate and mission-driven group of professionals.Versiti was founded with the belief that together, our blood centers can better serve patients’ urgent need for life-saving healthcare. We love what we do, and we're looking for passionate individuals to join the Versiti family. We foster a diverse environment that affirms each employee’s dignity and worth, and we offer a chance to work with a team of compassionate people who provide lifesaving blood to our communities on a daily basis.To get you started on your journey with us, we begin with an eight-week paid training program. This includes four weeks of classroom training and four weeks of mentoring with an experienced, certified phlebotomist.Are you ready to learn more?What You Will DoPerform accurate medical interviewingDetermine donor eligibilityPerform venipunctures / draw bloodEnsure donor and recipient safetyWork in donor center with donorsWhen you will work?Donor Center hours including early mornings, evenings and weekends. Full-time opportunity (32-40 hours weekly) with full </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">benefits! What’s in it for you?Complete insurance coverage – medical, dental, vision, life401(k) with company matchGenerous paid time offWellness programWhat You Will NeedHigh school diploma or equivalentValid driver's license with a clean motor vehicle recordReliable transportation to and from work locationAbility to work a variable </x:t>
+    <x:t>GENERAL WAREHOUSE WORKERS $500 Sign on JobsInLogistics.com
+              Sulphur, OK</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">benefits at 60 days and salary of $15.40 - $18.90 per hour includes shift differential and premium pay.Text DGWAREHOUSE to 25000ORAPPLY ONLINE TODAY!About Dollar General CorporationDollar General Corporation has been delivering value to shoppers for more than 80 years. Dollar General helps shoppers Save time. Save money. Every day! by offering products that are frequently used and replenished, such as food, snacks, health and beauty aids, cleaning supplies, basic apparel, housewares and seasonal items at everyday low prices in convenient neighborhood locations. Dollar General operated 17,177 stores in 46 states as of January 29, 2021. In addition to high-quality private brands, Dollar General sells products from America's most-trusted manufacturers such as Clorox, Energizer, Procter &amp; Gamble, Hanes, Coca-Cola, Mars, Unilever, Nestle, Kimberly-Clark, Kellogg's, General Mills, and PepsiCo. Learn more about Dollar General at dollargeneral.com..Serving others is our mission. Make it yours. EOE M/F/D/V Show more Show less </x:t>
   </x:si>
   <x:si>
     <x:t>Full-time</x:t>
@@ -71,170 +62,98 @@
     <x:t>Entry level</x:t>
   </x:si>
   <x:si>
-    <x:t>$35,000.00/yr - $57,000.00/yr</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Requirements And Working ConditionsPhysical demands: Daily tasks include a mixture of standing, sitting, and walking. Hand-eye coordination with significant manual dexterity and frequent repetitive hand motions. Reaching above the head and lifting up to 40-pound items occurs occasionally. Visual and hearing acuity to perform essential </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Phlebotomist: 40 Hours Per Week (AM's) Alverno Laboratories
-              Indianapolis, IN</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Experience And/or Training Is Required.Background in a medical laboratory and/or knowledge of medical terminology is preferred.Valid driver’s license and a good driving record. May be required to travel/drive to other locations. Show more Show less Seniority level Entry level Employment type Full-time Job function Health Care Provider Industries Hospitals and Health Care </x:t>
-  </x:si>
-  <x:si>
-    <x:t>$38,000.00/yr - $57,000.00/yr</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Phlebotomist - Greenwood Donor Center (Paid Training) Versiti Inc.
-              Greenwood, IN</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">schedule including early mornings, late days/evenings, weekends and holidaysFull-time opportunity (32-40 hours weekly) with full Schedules are posted three weeks in advance for planning purposes. Employees can be subject to any time slot based on the needs of our community partners. Your full-time hours can be scheduled anytime between 4am to 10pm (approx; times can vary earlier or later).What’s in it for you?Complete insurance coverage – medical, dental, vision, life401(k) with company matchGenerous paid time offWellness programWhat You Will NeedHigh school diploma or equivalentValid driver's license with a clean motor vehicle recordReliable transportation to and from work locationAbility to work a variable schedule including early mornings, late days/evenings, weekends and holidaysExcellent interpersonal skills, with demonstrated ability to work and interact effectively with peers, donors and the general publicA proven track record of customer service excellence and reliabilityBilingual strongly preferred All New Employees must be fully vaccinated for COVID-19 within 60 days of their hire date.Must be willing to submit to a Drug Screen, Background Check, Driving Record Check.Skills And KnowledgeKnowledge of standardized work routines and methods, general facts and information and/or the use of simple equipment, machines and materials. Knowledge is usually acquired through training on the job.Ability to read and interpret documents such as Standard Operating Procedures, safety rules, operating and maintenance instructions, and other department manuals.Must have basic mathematical aptitude.Ability to apply judgment to written or oral instructions.Ability to organize work to provide productive work flow.Flexibility to work independently and with a team.Has strong attention to detail.Must have good communication skills, including the ability to provide feedback to peers.Ability to learn/utilize computer applications such as Ceridian, Hemasphere, Oracle, and HemaTerra.Additional InformationTools and TechnologyPersonal Computer (desktop, laptop, tablet).General office equipment (computer, printer, fax, copy machine).Vehicle navigation system.Microsoft Suite (Word, Excel, PowerPoint, Outlook).Screening equipment including:LancetSphygmomanometer (BP cuff)Temperature probeHemoglobin analyzerPhlebotomy collection equipment including:Blood mixerTrimaAlyxPhysical </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">experience? No problem! We provide full paid training.Join the Versiti Donor Services team today!What You Can Expect In This PositionWe train all of our phlebotomists in the techniques that will help them advance their careers in health care, while working with a compassionate and mission-driven group of professionals.Versiti was founded with the belief that together, our blood centers can better serve patients’ urgent need for life-saving healthcare. We love what we do, and we're looking for passionate individuals to join the Versiti family. We foster a diverse environment that affirms each employee’s dignity and worth, and we offer a chance to work with a team of compassionate people who provide lifesaving blood to our communities on a daily basis.To get you started on your journey with us, we begin with an eight-week paid training program. This includes four weeks of classroom training and four weeks of mentoring with an experienced, certified phlebotomist.Are you ready to learn more?What You Will DoPerform accurate medical interviewingDetermine donor eligibilityPerform venipunctures / draw bloodEnsure donor and recipient safetyTravel to companies, schools and organizations in the area for public blood drivesWork in donor center with donors. When you will work?To serve our community, you will work a variable </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">benefits! </x:t>
-  </x:si>
-  <x:si>
-    <x:t>$37,000.00/yr - $56,000.00/yr</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Indiana Blood Mobile Phlebotomist (We Train!) Indianapolis, IN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$38,042 /yr (est.)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Indiana Blood Phlebotomist - Fishers Donor Center (Paid Training!) Fishers, IN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$36,476 /yr (est.)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>National Phlebotomist Registry Independent Mobile Phlebotomist Indianapolis, IN</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Experience
-1+ Years
-Zip/Postal Code
-46077
-State/Province
-Indiana
-City
-Indianapolis
-Country
-United States of America </x:t>
-  </x:si>
-  <x:si>
-    <x:t>$37,747 /yr (est.)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Quest Diagnostics Phlebotomist I Indianapolis, IN</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">(Responsibilities)
-1.Collect specimens according to established procedures. This includes, but not limited to: drug screens, biometric screening and insurance exams.
-2.Administer oral solutions according to established training.
-3.Research test/client information and confirm and verify all written and electronic orders by utilizing lab technology systems, Client contact, and approved tools.
-4. Ability to navigate a computer and accurately enter data is a </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Experience
-1.One year phlebotomy experience preferred.
-2.Customer service in a retail or service environment preferred.
-3.Keyboard/data entry experience.
-All </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">required
-Benefits/Perks:
-Day 1 Medical/Dental/Vision for FT
-15 PTO days first year
-Annual Bonus Opportunity
-401K matching
-Tuition Reimbursement for undergraduate and graduate programs for FT employees who work 30+ hours
-Opportunities for career advancement
-Training provided!
-Job Accountabilities </x:t>
-  </x:si>
-  <x:si>
-    <x:t>$33,978 /yr (est.)</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">requirement to be successful in this role.
-5.Obtain identification and accurately enter billing information and collect payments when required, following corporate policies.
-6.Processing specimens including: labeling, centrifuging, aliquoting, freezing and preparing for transport as required by test order.
-7. Perform all non-patient facing duties, including inventory, stock supplies, sanitizing, filing, answering phones and utilizing email as appropriate.
-8.Read, understand and comply with departmental policies, protocols and procedures.
-9.Assist with compilation and submission of statistics and data when required.
-10.Maintain all appropriate phlebotomy logs in a timely manner and based on frequency, such as maintenance logs and temperature logs.
-11.Complete online and in person training courses timely.
-[All requirements are subject to possible modifications to reasonably accommodate individuals with disabilities. All duties and requirements are essential job functions.]
-Required Education
-1.High school diploma or equivalent.
-2.Medical training: medical assistant or paramedic training preferred.
-3.Phlebotomy certification preferred. Required in California, Nevada, and Washington.
-Work requirements are subject to possible modifications to reasonably accommodate individuals with disabilities. Quest Diagnostics is an Equal Opportunity Employer: Women / Minorities / Veterans / Disabled / Sexual Orientation / Gender Identity / Citizenship.
-req93776
-All requirements are subject to possible modifications to reasonably accommodate individuals with disabilities. Quest Diagnostics is an Equal Opportunity Employer: Women / Minorities / Veterans / Disabled / Sexual Orientation / Gender Identity / Citizenship.
-req93776 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Labcorp Phlebotomist Indianapolis, IN</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">organization.
-Schedule: Monday- Friday 8:30AM-5:30PM, Weekend rotation ( Every fourth Weekend) </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Duties/Responsibilities:
-Perform blood collections by venipuncture and capillary techniques for all age groups
-Collect specimens for drug screens, paternity tests, alcohol tests etc.
-Perform data entry of patient information in an accurate and timely manner
-Process billing information and collect payments when required
-Prepare all collected specimens for testing and analysis
-Maintain patient and specimen information logs
-Provide superior customer service to all patients
-Administrative and clerical duties as necessary
-Travel to additional sites when needed
-If you're looking for a career that offers opportunities for growth, continual development, professional challenge and the chance to make a real difference, apply today!
-Labcorp is proud to be an Equal Opportunity Employer:
-As an EOE/AA employer, the organization will not discriminate in its employment practices due to an applicant's race, age, color, religion, sex, national origin, sexual orientation, gender identity, disability or veteran status.
-For more information about how we collect and store your personal data, please see our Privacy Statement. </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">experience as a phlebotomist
-Proven track record in providing exceptional customer service
-Strong communication skills; both written and verbal
-Ability to work independently or in a team environment
-Comfortable working under minimal supervision
-Reliable transportation and clean driving record if applicable
-Flexibility to work overtime as needed
-Able to pass a standardized color blindness test
-Job </x:t>
-  </x:si>
-  <x:si>
-    <x:t>$35,273 /yr (est.)</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">(9:00AM-1:00PM)
-Requirements
-High school diploma or equivalent
-Phlebotomy certification from an accredited agency is preferred
-Previous </x:t>
-  </x:si>
-  <x:si>
-    <x:t>System Services Lab Assistant II (West Lab) Avon, IN</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">experience in laboratory or coursework in biological, chemical or related science preferred.Experience in waived or moderate complexity is preferred.Requires working knowledge of computers.Requires telephone skills.Requires ability to perform repetitive tasks for prolonged periods of time.May serve on appropriate committees or projects that contribute to the overall purpose and essential functions of the department. </x:t>
-  </x:si>
-  <x:si>
-    <x:t>$33,125 /yr (est.)</x:t>
+    <x:t>GENERAL WAREHOUSE WORKERS $500 Sign on JobsInLogistics.com
+              Healdton, OK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GENERAL WAREHOUSE WORKERS $500 Sign on JobsInLogistics.com
+              Lone Grove, OK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dishwasher at Springs The Artesian Hotel, Casino &amp; Spa
+              Sulphur, OK</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Schedules401(k) MatchingAffordable Health InsuranceAffordable Dental InsuranceAffordable Vision InsuranceEXCELLENT opportunities to grow with us – over 85% of our Managers were hourly Team Members Referral bonuses for bringing new members to our team Employee Assistance ProgramEmployee DiscountPaid Time OffEmployee Recognition ProgramsAnniversary &amp; Birthday ProgramsAward Co. Our Mission“Traditions Spirits believes in exceeding employee and guest expectations by treating them like family and acknowledging them as our most valuable assets. Our success is measured by teamwork, growth, profitability and delivering legendary service to every guest, every </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">time.”QualificationsThe dishwasher is responsible for maintaining cleanliness and sanitation standards for china, glassware tableware, cooking utensils, etc, using machine and manual cleaning methods. Ensures the dishwashing and bussing areas are maintained as clean, safe and sanitary facility.Essential Functions And Qualifications (includes Education, Skills And </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">ResponsibilitiesEmbodies Traditions Spirits Mission, Vision, and Core ValuesSort and rinse dirty dishes, glass, tableware and other cooking utensils and place them in racks to send through dish machineSort and stack clean dishes. Carries clean dishes to cook's line and other proper storage areasRewashes soiled dishes before deliveringChange dishwater in dish machine every hourWash pots, pans and trays by handRemove trash and garbage to dumpsterSet up or break down dishwashing areaClean and roll/unroll matsFill/empty soak tubs with cleaning/sanitizing solutionsSweep/mop floorsAssemble/disassemble dish machineSweep up trash around exterior of restaurant and garbage dumpsterGeneral restaurant and restroom cleaning as directedWipe up any spills to ensure kitchen floors remain dryMust notify Manager anytime dish machine wash or rinse cycle falls below safety standard temperaturesSpeak with guests to ensure satisfaction with food and service, and to respond to complaintsRemove dishes and glasses from bar and take them to kitchen for cleaningClean tables and/or counters after guests have finished diningMaintain personal health and sanitation standards (wash hands when using restroom, etc.)Review work procedures and operational problems in order to determine ways to improve service, performance, and/or safetyThis position is located within The Chickasaw Nation's Casinos. Required </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">experiences and knowledge to expand a successful organization into a new facility, to stabilize that new creation and watch it grow. We provide a strong support staff that is ready to mentor and encourage our team members to grow with the organization in a fun and exciting atmosphere! Should you invest your career in a job so amazing you'll feel proud to be a part of every day?Employee Experience)High School Diploma or equivalent desiredMust be 16 years of age or olderKnowledge of principles and processes for providing guest and personal services; this includes guest needs assessment, meeting quality standards for services, and evaluation of guest satisfactionPerforming for people or dealing directly with the public. This includes serving guests in restaurants and receiving guestsGood oral and written communication skillsMature judgment and professionalism in handling all mattersAbility to read and understand information and ideas presented in writingGood problem solving skillsWorking Conditions And Physical EffortStanding during entire shiftReaches, bends, stoops, lifts, shakes, stirs, pours, carries and pushesLifts and carries tubs and cases, weighing up to 75 lbsEssential hand/eye coordinationFrequent exposure to smoke, steam, high temperatures, humidity, extremeSubstantial repetitive motion of the wrists, hands and fingersHazards may include, but are not limited to, cuts from knives, slipping, tripping falls and burnsFrequent contact/immersion of hands in water, sanitation solutions, meat products, poultry products, seafood and produce itemsFrequent washing of handsWork is normally performed in a typical interior restaurant work environmentNoise level is moderate to highModerate or high exposure to cigarette smokeART123 Show more Show less Seniority level Entry level Employment type Full-time Job function Management and Manufacturing Industries Hospitality Referrals increase your chances of interviewing at The Artesian Hotel, Casino &amp; Spa by 2x See who you know </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">BenefitsFlexible </x:t>
+  </x:si>
+  <x:si>
+    <x:t>$32,000.00/yr - $51,000.00/yr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dishwasher / Utility Position Nothing Bundt Cakes
+              Wynnewood, OK</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">environmentResponsibilities May Include But Are Not Limited To Abide by all NBC policies and procedures Uphold NBC's image and brand Assist other departments when necessary Wash all dishes from frosting and baking departments Clean bathroom(s) Keep walls, floors, shelves and surfaces clean Clean refrigerator and cooler units Fold Boxes and label containers Empty trash and take to dumpster Clean floor drains Assist baker and froster(s) with daily tasks Clean windows Show more Show less Seniority level Entry level Employment type Full-time Job function Management and Manufacturing Industries Baked Goods Manufacturing </x:t>
+  </x:si>
+  <x:si>
+    <x:t>$25,000.00/yr - $42,000.00/yr</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">departments.Requirements Possess a strong sense of teamwork Ability to follow instructions Has integrity Takes initiative Fits the Nothing Bundt Cakes Culture Has the ability to work well under pressure Possess strong physical stamina Finds comfort doing repetitious work Has a strong sense of pride in one's work Feels the necessity to keep a clean work </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dishwasher at Springs Traditions Spirits
+              Sulphur, OK</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Schedules401(k) MatchingAffordable Health InsuranceAffordable Dental InsuranceAffordable Vision InsuranceEXCELLENT opportunities to grow with us over 85% of our Managers were hourly Team Members Referral bonuses for bringing new members to our team Employee Assistance ProgramEmployee DiscountPaid Time OffEmployee Recognition ProgramsAnniversary &amp; Birthday ProgramsAward Co. OUR MISSION: "Traditions Spirits believes in exceeding employee and guest expectations by treating them like family and acknowledging them as our most valuable assets. Our success is measured by teamwork, growth, profitability and delivering legendary service to every guest, every </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">time."QualificationsThe dishwasher is responsible for maintaining cleanliness and sanitation standards for china, glassware tableware, cooking utensils, etc, using machine and manual cleaning methods. Ensures the dishwashing and bussing areas are maintained as clean, safe and sanitary facility.Essential Functions And QUALIFICATIONS (INCLUDES EDUCATION, SKILLS AND Qualifications16 years or olderLegally authorized to work in the United States Show more Show less Seniority level Entry level Employment type Full-time Job function Management and Manufacturing Industries Hospitality Referrals increase your chances of interviewing at Traditions Spirits by 2x See who you know </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">ResponsibilitiesEmbodies Traditions Spirits Mission, Vision, and Core ValuesSort and rinse dirty dishes, glass, tableware and other cooking utensils and place them in racks to send through dish machineSort and stack clean dishes. Carries clean dishes to cook's line and other proper storage areasRewashes soiled dishes before deliveringChange dishwater in dish machine every hourWash pots, pans and trays by handRemove trash and garbage to dumpsterSet up or break down dishwashing areaClean and roll/unroll matsFill/empty soak tubs with cleaning/sanitizing solutionsSweep/mop floorsAssemble/disassemble dish machineSweep up trash around exterior of restaurant and garbage dumpsterGeneral restaurant and restroom cleaning as directedWipe up any spills to ensure kitchen floors remain dryMust notify Manager anytime dish machine wash or rinse cycle falls below safety standard temperaturesSpeak with guests to ensure satisfaction with food and service, and to respond to complaintsRemove dishes and glasses from bar and take them to kitchen for cleaningClean tables and/or counters after guests have finished diningMaintain personal health and sanitation standards (wash hands when using restroom, etc.)Review work procedures and operational problems in order to determine ways to improve service, performance, and/or safetyThis position is located within The Chickasaw Nation's Casinos. REQUIRED </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">experiences and knowledge to expand a successful organization into a new facility, to stabilize that new creation and watch it grow. We provide a strong support staff that is ready to mentor and encourage our team members to grow with the organization in a fun and exciting atmosphere! Should you invest your career in a job so amazing you'll feel proud to be a part of every day?Employee EXPERIENCE):High School Diploma or equivalent desiredMust be 16 years of age or olderKnowledge of principles and processes for providing guest and personal services; this includes guest needs assessment, meeting quality standards for services, and evaluation of guest satisfactionPerforming for people or dealing directly with the public. This includes serving guests in restaurants and receiving guestsGood oral and written communication skillsMature judgment and professionalism in handling all mattersAbility to read and understand information and ideas presented in writingGood problem solving skillsWORKING CONDITIONS AND PHYSICAL EFFORT:Standing during entire shiftReaches, bends, stoops, lifts, shakes, stirs, pours, carries and pushesLifts and carries tubs and cases, weighing up to 75 lbsEssential hand/eye coordinationFrequent exposure to smoke, steam, high temperatures, humidity, extremeSubstantial repetitive motion of the wrists, hands and fingersHazards may include, but are not limited to, cuts from knives, slipping, tripping falls and burnsFrequent contact/immersion of hands in water, sanitation solutions, meat products, poultry products, seafood and produce itemsFrequent washing of handsWork is normally performed in a typical interior restaurant work environmentNoise level is moderate to highModerate or high exposure to cigarette smokeART123Required </x:t>
+  </x:si>
+  <x:si>
+    <x:t>$38,000.00/yr - $49,000.00/yr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Server at Springs The Artesian Hotel, Casino &amp; Spa
+              Sulphur, OK</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">time.”QualificationsTake orders and serve food and beverages to guests at tables in dining establishment. Ensures guest satisfaction, food quality, and cleanliness. Presents menus to guests and answers questions about menu items, making recommendations upon request. Is thoroughly knowledgeable in all aspects of the menu, ingredients, and prices.Essential Functions And Qualifications (includes Education, Skills And </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">ResponsibilitiesEmbodies Traditions Spirits Mission, Vision, and Core ValuesGreet guests, escort them to their seats, and present them with menus and wine listsTake dining reservationsPresent menus to guests and answer questions about menu items, making recommendations upon requestTake orders from guests for food or beveragesExplain how various menu items are prepared, describing ingredients and cooking methodsInform guests of daily specialsCheck guests' identification in order to ensure that they meet minimum age </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">experiences and knowledge to expand a successful organization into a new facility, to stabilize that new creation and watch it grow. We provide a strong support staff that is ready to mentor and encourage our team members to grow with the organization in a fun and exciting atmosphere! Should you invest your career in a job so amazing you'll feel proud to be a part of every day?Employee Experience)High School Diploma or equivalent with a minimum of 1 year relevant experience desiredMust be 18 years of age or olderKnowledge of principles and processes for providing guest and personal services; this includes guest needs assessment, meeting quality standards for services, and evaluation of guest satisfactionPerforming for people or dealing directly with the public. This includes serving guests in restaurants and receiving guestsGood oral and written communication skillsMature judgment and professionalism in handling all mattersAbility to read, write, and understand ordersGood computer skillsAbility to read and understand information and ideas presented in writingAbility to handle cash, give change, and balance receipts at end of shiftExcellent organization and problem solving skillsKnowledge of InfoGenesis softwareWorking Conditions And Physical EffortStanding during entire shiftReaches, bends, stoops, lifts, shakes, stirs, pours, carries and pushesLifts and carries supplies, tubs, and cases, weighing up to 30 lbsEssential hand/eye coordinationWork is normally performed in a typical interior restaurant work environmentNoise level is moderate to highModerate or high exposure to cigarette smokeLimited exposure to physical riskModerate physical effort requiredART123 Show more Show less Seniority level Entry level Employment type Full-time Job function Management and Manufacturing Industries Hospitality Referrals increase your chances of interviewing at The Artesian Hotel, Casino &amp; Spa by 2x See who you know </x:t>
+  </x:si>
+  <x:si>
+    <x:t>$32,000.00/yr - $55,000.00/yr</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">requirements for consumption of alcoholic beveragesAttempt to limit problems and liability related to guests excessive drinking by taking steps such as persuading guests to stop drinking, or ordering taxis or other transportation for intoxicated guestsCheck with guests to ensure that they are enjoying their meals and take action to correct any problemsServe food and/or beverages to guests; prepare and serve specialty dishes at tables as requiredWrite guests' food orders on order slips, memorize orders, or enter orders into computers for transmittal to kitchen staffDescribe and recommend wines to guestsBring wine selections to tables with appropriate glasses, and pour the wines for guestsGarnish and decorate dishes in preparation for servingPrepare hot, cold, and mixed drinks for guests, and chill bottles of winePerform food preparation duties such as preparing salads, appetizers, and cold dishes, portioning desserts, and brewing coffee, etc.Remove dishes and glasses from tables or counters, and take them to kitchen for cleaningClean tables and/or counters after guests have finished diningPrepare checks that itemize and total meal costs and sales taxesPresent bills, accept payments, operate cash registerPrepare cash receipts after establishments close, and make bank depositsStock service areas with supplies such as coffee, food, tableware, and linens, fill salt, pepper, sugar, cream, condiment, and napkin containers, etc.Prepare tables for meals, including setting up items such as linens, silverware, and glasswareMaintain personal health and sanitation standards (wash hands when using restroom, etc.)Review work procedures and operational problems in order to determine ways to improve service, performance, and/or safetyThis position is located within The Chickasaw Nation's Casinos. Required </x:t>
+  </x:si>
+  <x:si>
+    <x:t>General Cleaner IH Services, Inc.
+              Gene Autry, OK</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">neededQualificationsMust pass drug screen and background check and have reliable transportationA strong work ethic The ability to work alone or within a team is a must.JOB CODE: 1074 Show more Show less </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">neededQualificationsMust pass drug screen and background check and have reliable transportationA strong work ethic The ability to work alone or within a team is a must.JOB CODE: 1126 Show more Show less </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Part-time</x:t>
   </x:si>
   <x:si>
     <x:t>CSL Plasma Phlebotomist Indianapolis, IN</x:t>
@@ -690,106 +609,130 @@
       <x:c r="A2" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="B2" s="0" t="s">
+      <x:c r="G2" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="D2" s="0" t="s">
+      <x:c r="H2" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="E2" s="0" t="s">
+      <x:c r="I2" s="0" t="s">
         <x:v>14</x:v>
-      </x:c>
-      <x:c r="G2" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="H2" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="I2" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="J2" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="K2" s="0" t="s">
-        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:11">
       <x:c r="A3" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="E3" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G3" s="0" t="s">
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H3" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="I3" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="J3" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:11">
       <x:c r="A4" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="B4" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="D4" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="G4" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H4" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="E4" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="G4" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="H4" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
       <x:c r="I4" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="J4" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="K4" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:11">
       <x:c r="A5" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="E5" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="G5" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="H5" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="I5" s="0" t="s">
+        <x:v>14</x:v>
       </x:c>
       <x:c r="J5" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:11">
       <x:c r="A6" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="H6" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="I6" s="0" t="s">
+        <x:v>14</x:v>
       </x:c>
       <x:c r="J6" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="K6" s="0" t="s">
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:11">
       <x:c r="A7" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="E7" s="0" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="E7" s="0" t="s">
+      <x:c r="G7" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="H7" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="I7" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J7" s="0" t="s">
         <x:v>33</x:v>
-      </x:c>
-      <x:c r="J7" s="0" t="s">
-        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:11">
       <x:c r="A8" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
         <x:v>35</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
@@ -799,80 +742,83 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="G8" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="H8" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="I8" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J8" s="0" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="J8" s="0" t="s">
+      <x:c r="K8" s="0" t="s">
         <x:v>39</x:v>
-      </x:c>
-      <x:c r="K8" s="0" t="s">
-        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:11">
       <x:c r="A9" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
         <x:v>41</x:v>
       </x:c>
-      <x:c r="B9" s="0" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="D9" s="0" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="E9" s="0" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="J9" s="0" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="K9" s="0" t="s">
-        <x:v>46</x:v>
+      <x:c r="H9" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="I9" s="0" t="s">
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:11">
       <x:c r="A10" s="0" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="E10" s="0" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="J10" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="H10" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="I10" s="0" t="s">
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:11">
       <x:c r="A11" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="E11" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="G11" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="J11" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="K11" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:11">
       <x:c r="A12" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="E12" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="J12" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:11">
       <x:c r="A13" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="J13" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Filtered_Employment.xlsx
+++ b/Filtered_Employment.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <x:si>
     <x:t>Title</x:t>
   </x:si>
@@ -49,11 +49,11 @@
     <x:t>Requirements</x:t>
   </x:si>
   <x:si>
-    <x:t>GENERAL WAREHOUSE WORKERS $500 Sign on JobsInLogistics.com
-              Sulphur, OK</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">benefits at 60 days and salary of $15.40 - $18.90 per hour includes shift differential and premium pay.Text DGWAREHOUSE to 25000ORAPPLY ONLINE TODAY!About Dollar General CorporationDollar General Corporation has been delivering value to shoppers for more than 80 years. Dollar General helps shoppers Save time. Save money. Every day! by offering products that are frequently used and replenished, such as food, snacks, health and beauty aids, cleaning supplies, basic apparel, housewares and seasonal items at everyday low prices in convenient neighborhood locations. Dollar General operated 17,177 stores in 46 states as of January 29, 2021. In addition to high-quality private brands, Dollar General sells products from America's most-trusted manufacturers such as Clorox, Energizer, Procter &amp; Gamble, Hanes, Coca-Cola, Mars, Unilever, Nestle, Kimberly-Clark, Kellogg's, General Mills, and PepsiCo. Learn more about Dollar General at dollargeneral.com..Serving others is our mission. Make it yours. EOE M/F/D/V Show more Show less </x:t>
+    <x:t>Grand Junction Elementary School Certified Teacher Varsity Tutors, a Nerdy Company
+              Grand Junction, CO</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">experience. Show more Show less </x:t>
   </x:si>
   <x:si>
     <x:t>Full-time</x:t>
@@ -62,98 +62,36 @@
     <x:t>Entry level</x:t>
   </x:si>
   <x:si>
-    <x:t>GENERAL WAREHOUSE WORKERS $500 Sign on JobsInLogistics.com
-              Healdton, OK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GENERAL WAREHOUSE WORKERS $500 Sign on JobsInLogistics.com
-              Lone Grove, OK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dishwasher at Springs The Artesian Hotel, Casino &amp; Spa
-              Sulphur, OK</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Schedules401(k) MatchingAffordable Health InsuranceAffordable Dental InsuranceAffordable Vision InsuranceEXCELLENT opportunities to grow with us – over 85% of our Managers were hourly Team Members Referral bonuses for bringing new members to our team Employee Assistance ProgramEmployee DiscountPaid Time OffEmployee Recognition ProgramsAnniversary &amp; Birthday ProgramsAward Co. Our Mission“Traditions Spirits believes in exceeding employee and guest expectations by treating them like family and acknowledging them as our most valuable assets. Our success is measured by teamwork, growth, profitability and delivering legendary service to every guest, every </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">time.”QualificationsThe dishwasher is responsible for maintaining cleanliness and sanitation standards for china, glassware tableware, cooking utensils, etc, using machine and manual cleaning methods. Ensures the dishwashing and bussing areas are maintained as clean, safe and sanitary facility.Essential Functions And Qualifications (includes Education, Skills And </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">ResponsibilitiesEmbodies Traditions Spirits Mission, Vision, and Core ValuesSort and rinse dirty dishes, glass, tableware and other cooking utensils and place them in racks to send through dish machineSort and stack clean dishes. Carries clean dishes to cook's line and other proper storage areasRewashes soiled dishes before deliveringChange dishwater in dish machine every hourWash pots, pans and trays by handRemove trash and garbage to dumpsterSet up or break down dishwashing areaClean and roll/unroll matsFill/empty soak tubs with cleaning/sanitizing solutionsSweep/mop floorsAssemble/disassemble dish machineSweep up trash around exterior of restaurant and garbage dumpsterGeneral restaurant and restroom cleaning as directedWipe up any spills to ensure kitchen floors remain dryMust notify Manager anytime dish machine wash or rinse cycle falls below safety standard temperaturesSpeak with guests to ensure satisfaction with food and service, and to respond to complaintsRemove dishes and glasses from bar and take them to kitchen for cleaningClean tables and/or counters after guests have finished diningMaintain personal health and sanitation standards (wash hands when using restroom, etc.)Review work procedures and operational problems in order to determine ways to improve service, performance, and/or safetyThis position is located within The Chickasaw Nation's Casinos. Required </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">experiences and knowledge to expand a successful organization into a new facility, to stabilize that new creation and watch it grow. We provide a strong support staff that is ready to mentor and encourage our team members to grow with the organization in a fun and exciting atmosphere! Should you invest your career in a job so amazing you'll feel proud to be a part of every day?Employee Experience)High School Diploma or equivalent desiredMust be 16 years of age or olderKnowledge of principles and processes for providing guest and personal services; this includes guest needs assessment, meeting quality standards for services, and evaluation of guest satisfactionPerforming for people or dealing directly with the public. This includes serving guests in restaurants and receiving guestsGood oral and written communication skillsMature judgment and professionalism in handling all mattersAbility to read and understand information and ideas presented in writingGood problem solving skillsWorking Conditions And Physical EffortStanding during entire shiftReaches, bends, stoops, lifts, shakes, stirs, pours, carries and pushesLifts and carries tubs and cases, weighing up to 75 lbsEssential hand/eye coordinationFrequent exposure to smoke, steam, high temperatures, humidity, extremeSubstantial repetitive motion of the wrists, hands and fingersHazards may include, but are not limited to, cuts from knives, slipping, tripping falls and burnsFrequent contact/immersion of hands in water, sanitation solutions, meat products, poultry products, seafood and produce itemsFrequent washing of handsWork is normally performed in a typical interior restaurant work environmentNoise level is moderate to highModerate or high exposure to cigarette smokeART123 Show more Show less Seniority level Entry level Employment type Full-time Job function Management and Manufacturing Industries Hospitality Referrals increase your chances of interviewing at The Artesian Hotel, Casino &amp; Spa by 2x See who you know </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">BenefitsFlexible </x:t>
-  </x:si>
-  <x:si>
-    <x:t>$32,000.00/yr - $51,000.00/yr</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dishwasher / Utility Position Nothing Bundt Cakes
-              Wynnewood, OK</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">environmentResponsibilities May Include But Are Not Limited To Abide by all NBC policies and procedures Uphold NBC's image and brand Assist other departments when necessary Wash all dishes from frosting and baking departments Clean bathroom(s) Keep walls, floors, shelves and surfaces clean Clean refrigerator and cooler units Fold Boxes and label containers Empty trash and take to dumpster Clean floor drains Assist baker and froster(s) with daily tasks Clean windows Show more Show less Seniority level Entry level Employment type Full-time Job function Management and Manufacturing Industries Baked Goods Manufacturing </x:t>
-  </x:si>
-  <x:si>
-    <x:t>$25,000.00/yr - $42,000.00/yr</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">departments.Requirements Possess a strong sense of teamwork Ability to follow instructions Has integrity Takes initiative Fits the Nothing Bundt Cakes Culture Has the ability to work well under pressure Possess strong physical stamina Finds comfort doing repetitious work Has a strong sense of pride in one's work Feels the necessity to keep a clean work </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dishwasher at Springs Traditions Spirits
-              Sulphur, OK</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Schedules401(k) MatchingAffordable Health InsuranceAffordable Dental InsuranceAffordable Vision InsuranceEXCELLENT opportunities to grow with us over 85% of our Managers were hourly Team Members Referral bonuses for bringing new members to our team Employee Assistance ProgramEmployee DiscountPaid Time OffEmployee Recognition ProgramsAnniversary &amp; Birthday ProgramsAward Co. OUR MISSION: "Traditions Spirits believes in exceeding employee and guest expectations by treating them like family and acknowledging them as our most valuable assets. Our success is measured by teamwork, growth, profitability and delivering legendary service to every guest, every </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">time."QualificationsThe dishwasher is responsible for maintaining cleanliness and sanitation standards for china, glassware tableware, cooking utensils, etc, using machine and manual cleaning methods. Ensures the dishwashing and bussing areas are maintained as clean, safe and sanitary facility.Essential Functions And QUALIFICATIONS (INCLUDES EDUCATION, SKILLS AND Qualifications16 years or olderLegally authorized to work in the United States Show more Show less Seniority level Entry level Employment type Full-time Job function Management and Manufacturing Industries Hospitality Referrals increase your chances of interviewing at Traditions Spirits by 2x See who you know </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">ResponsibilitiesEmbodies Traditions Spirits Mission, Vision, and Core ValuesSort and rinse dirty dishes, glass, tableware and other cooking utensils and place them in racks to send through dish machineSort and stack clean dishes. Carries clean dishes to cook's line and other proper storage areasRewashes soiled dishes before deliveringChange dishwater in dish machine every hourWash pots, pans and trays by handRemove trash and garbage to dumpsterSet up or break down dishwashing areaClean and roll/unroll matsFill/empty soak tubs with cleaning/sanitizing solutionsSweep/mop floorsAssemble/disassemble dish machineSweep up trash around exterior of restaurant and garbage dumpsterGeneral restaurant and restroom cleaning as directedWipe up any spills to ensure kitchen floors remain dryMust notify Manager anytime dish machine wash or rinse cycle falls below safety standard temperaturesSpeak with guests to ensure satisfaction with food and service, and to respond to complaintsRemove dishes and glasses from bar and take them to kitchen for cleaningClean tables and/or counters after guests have finished diningMaintain personal health and sanitation standards (wash hands when using restroom, etc.)Review work procedures and operational problems in order to determine ways to improve service, performance, and/or safetyThis position is located within The Chickasaw Nation's Casinos. REQUIRED </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">experiences and knowledge to expand a successful organization into a new facility, to stabilize that new creation and watch it grow. We provide a strong support staff that is ready to mentor and encourage our team members to grow with the organization in a fun and exciting atmosphere! Should you invest your career in a job so amazing you'll feel proud to be a part of every day?Employee EXPERIENCE):High School Diploma or equivalent desiredMust be 16 years of age or olderKnowledge of principles and processes for providing guest and personal services; this includes guest needs assessment, meeting quality standards for services, and evaluation of guest satisfactionPerforming for people or dealing directly with the public. This includes serving guests in restaurants and receiving guestsGood oral and written communication skillsMature judgment and professionalism in handling all mattersAbility to read and understand information and ideas presented in writingGood problem solving skillsWORKING CONDITIONS AND PHYSICAL EFFORT:Standing during entire shiftReaches, bends, stoops, lifts, shakes, stirs, pours, carries and pushesLifts and carries tubs and cases, weighing up to 75 lbsEssential hand/eye coordinationFrequent exposure to smoke, steam, high temperatures, humidity, extremeSubstantial repetitive motion of the wrists, hands and fingersHazards may include, but are not limited to, cuts from knives, slipping, tripping falls and burnsFrequent contact/immersion of hands in water, sanitation solutions, meat products, poultry products, seafood and produce itemsFrequent washing of handsWork is normally performed in a typical interior restaurant work environmentNoise level is moderate to highModerate or high exposure to cigarette smokeART123Required </x:t>
-  </x:si>
-  <x:si>
-    <x:t>$38,000.00/yr - $49,000.00/yr</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Server at Springs The Artesian Hotel, Casino &amp; Spa
-              Sulphur, OK</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">time.”QualificationsTake orders and serve food and beverages to guests at tables in dining establishment. Ensures guest satisfaction, food quality, and cleanliness. Presents menus to guests and answers questions about menu items, making recommendations upon request. Is thoroughly knowledgeable in all aspects of the menu, ingredients, and prices.Essential Functions And Qualifications (includes Education, Skills And </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">ResponsibilitiesEmbodies Traditions Spirits Mission, Vision, and Core ValuesGreet guests, escort them to their seats, and present them with menus and wine listsTake dining reservationsPresent menus to guests and answer questions about menu items, making recommendations upon requestTake orders from guests for food or beveragesExplain how various menu items are prepared, describing ingredients and cooking methodsInform guests of daily specialsCheck guests' identification in order to ensure that they meet minimum age </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">experiences and knowledge to expand a successful organization into a new facility, to stabilize that new creation and watch it grow. We provide a strong support staff that is ready to mentor and encourage our team members to grow with the organization in a fun and exciting atmosphere! Should you invest your career in a job so amazing you'll feel proud to be a part of every day?Employee Experience)High School Diploma or equivalent with a minimum of 1 year relevant experience desiredMust be 18 years of age or olderKnowledge of principles and processes for providing guest and personal services; this includes guest needs assessment, meeting quality standards for services, and evaluation of guest satisfactionPerforming for people or dealing directly with the public. This includes serving guests in restaurants and receiving guestsGood oral and written communication skillsMature judgment and professionalism in handling all mattersAbility to read, write, and understand ordersGood computer skillsAbility to read and understand information and ideas presented in writingAbility to handle cash, give change, and balance receipts at end of shiftExcellent organization and problem solving skillsKnowledge of InfoGenesis softwareWorking Conditions And Physical EffortStanding during entire shiftReaches, bends, stoops, lifts, shakes, stirs, pours, carries and pushesLifts and carries supplies, tubs, and cases, weighing up to 30 lbsEssential hand/eye coordinationWork is normally performed in a typical interior restaurant work environmentNoise level is moderate to highModerate or high exposure to cigarette smokeLimited exposure to physical riskModerate physical effort requiredART123 Show more Show less Seniority level Entry level Employment type Full-time Job function Management and Manufacturing Industries Hospitality Referrals increase your chances of interviewing at The Artesian Hotel, Casino &amp; Spa by 2x See who you know </x:t>
-  </x:si>
-  <x:si>
-    <x:t>$32,000.00/yr - $55,000.00/yr</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">requirements for consumption of alcoholic beveragesAttempt to limit problems and liability related to guests excessive drinking by taking steps such as persuading guests to stop drinking, or ordering taxis or other transportation for intoxicated guestsCheck with guests to ensure that they are enjoying their meals and take action to correct any problemsServe food and/or beverages to guests; prepare and serve specialty dishes at tables as requiredWrite guests' food orders on order slips, memorize orders, or enter orders into computers for transmittal to kitchen staffDescribe and recommend wines to guestsBring wine selections to tables with appropriate glasses, and pour the wines for guestsGarnish and decorate dishes in preparation for servingPrepare hot, cold, and mixed drinks for guests, and chill bottles of winePerform food preparation duties such as preparing salads, appetizers, and cold dishes, portioning desserts, and brewing coffee, etc.Remove dishes and glasses from tables or counters, and take them to kitchen for cleaningClean tables and/or counters after guests have finished diningPrepare checks that itemize and total meal costs and sales taxesPresent bills, accept payments, operate cash registerPrepare cash receipts after establishments close, and make bank depositsStock service areas with supplies such as coffee, food, tableware, and linens, fill salt, pepper, sugar, cream, condiment, and napkin containers, etc.Prepare tables for meals, including setting up items such as linens, silverware, and glasswareMaintain personal health and sanitation standards (wash hands when using restroom, etc.)Review work procedures and operational problems in order to determine ways to improve service, performance, and/or safetyThis position is located within The Chickasaw Nation's Casinos. Required </x:t>
-  </x:si>
-  <x:si>
-    <x:t>General Cleaner IH Services, Inc.
-              Gene Autry, OK</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">neededQualificationsMust pass drug screen and background check and have reliable transportationA strong work ethic The ability to work alone or within a team is a must.JOB CODE: 1074 Show more Show less </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">neededQualificationsMust pass drug screen and background check and have reliable transportationA strong work ethic The ability to work alone or within a team is a must.JOB CODE: 1126 Show more Show less </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Part-time</x:t>
+    <x:t>Grand Junction Elementary School Reading Certified Teacher Varsity Tutors, a Nerdy Company
+              Grand Junction, CO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Grand Junction Elementary School Science Certified Teacher Varsity Tutors, a Nerdy Company
+              Grand Junction, CO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Grand Junction Elementary School Writing Certified Teacher Varsity Tutors, a Nerdy Company
+              Grand Junction, CO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Grand Junction Elementary School Math Certified Teacher Varsity Tutors, a Nerdy Company
+              Grand Junction, CO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Grand Junction Middle School Certified Teacher Varsity Tutors, a Nerdy Company
+              Grand Junction, CO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Grand Junction Middle School Reading Comprehension Certified Teacher Varsity Tutors, a Nerdy Company
+              Grand Junction, CO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Grand Junction Middle School Reading Certified Teacher Varsity Tutors, a Nerdy Company
+              Grand Junction, CO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Grand Junction High School Biology Certified Teacher Varsity Tutors, a Nerdy Company
+              Grand Junction, CO</x:t>
   </x:si>
   <x:si>
     <x:t>CSL Plasma Phlebotomist Indianapolis, IN</x:t>
@@ -609,7 +547,7 @@
       <x:c r="A2" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="G2" s="0" t="s">
+      <x:c r="E2" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="H2" s="0" t="s">
@@ -623,7 +561,7 @@
       <x:c r="A3" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="G3" s="0" t="s">
+      <x:c r="E3" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="H3" s="0" t="s">
@@ -637,7 +575,7 @@
       <x:c r="A4" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="G4" s="0" t="s">
+      <x:c r="E4" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="H4" s="0" t="s">
@@ -651,118 +589,64 @@
       <x:c r="A5" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="B5" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="C5" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="D5" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
       <x:c r="E5" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="G5" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H5" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="I5" s="0" t="s">
         <x:v>14</x:v>
-      </x:c>
-      <x:c r="J5" s="0" t="s">
-        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:11">
       <x:c r="A6" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="D6" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E6" s="0" t="s">
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H6" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="I6" s="0" t="s">
         <x:v>14</x:v>
-      </x:c>
-      <x:c r="J6" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="K6" s="0" t="s">
-        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:11">
       <x:c r="A7" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="B7" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="C7" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="D7" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E7" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="G7" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H7" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="I7" s="0" t="s">
         <x:v>14</x:v>
-      </x:c>
-      <x:c r="J7" s="0" t="s">
-        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:11">
       <x:c r="A8" s="0" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="B8" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="C8" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="D8" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E8" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="G8" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H8" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="I8" s="0" t="s">
         <x:v>14</x:v>
-      </x:c>
-      <x:c r="J8" s="0" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="K8" s="0" t="s">
-        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:11">
       <x:c r="A9" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="C9" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="E9" s="0" t="s">
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H9" s="0" t="s">
         <x:v>13</x:v>
@@ -773,13 +657,13 @@
     </x:row>
     <x:row r="10" spans="1:11">
       <x:c r="A10" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="C10" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E10" s="0" t="s">
+        <x:v>12</x:v>
       </x:c>
       <x:c r="H10" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="I10" s="0" t="s">
         <x:v>14</x:v>
@@ -787,38 +671,38 @@
     </x:row>
     <x:row r="11" spans="1:11">
       <x:c r="A11" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E11" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="G11" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="J11" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="K11" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:11">
       <x:c r="A12" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E12" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="J12" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:11">
       <x:c r="A13" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="J13" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
